--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3752,28 +3752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7240.137750914585</v>
+        <v>7464.434631888013</v>
       </c>
       <c r="AB2" t="n">
-        <v>9906.275883136483</v>
+        <v>10213.16877096436</v>
       </c>
       <c r="AC2" t="n">
-        <v>8960.834816395085</v>
+        <v>9238.438277735529</v>
       </c>
       <c r="AD2" t="n">
-        <v>7240137.750914585</v>
+        <v>7464434.631888012</v>
       </c>
       <c r="AE2" t="n">
-        <v>9906275.883136483</v>
+        <v>10213168.77096436</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.115475201026106e-07</v>
+        <v>8.816462973356352e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.69375</v>
       </c>
       <c r="AH2" t="n">
-        <v>8960834.816395085</v>
+        <v>9238438.277735529</v>
       </c>
     </row>
     <row r="3">
@@ -3858,28 +3858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2437.605452168804</v>
+        <v>2549.753982164068</v>
       </c>
       <c r="AB3" t="n">
-        <v>3335.239319220336</v>
+        <v>3488.685885603823</v>
       </c>
       <c r="AC3" t="n">
-        <v>3016.928759631605</v>
+        <v>3155.730601083055</v>
       </c>
       <c r="AD3" t="n">
-        <v>2437605.452168804</v>
+        <v>2549753.982164069</v>
       </c>
       <c r="AE3" t="n">
-        <v>3335239.319220336</v>
+        <v>3488685.885603823</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.151465786300073e-06</v>
+        <v>1.660027248299181e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.39583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3016928.759631605</v>
+        <v>3155730.601083055</v>
       </c>
     </row>
     <row r="4">
@@ -3964,28 +3964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1869.413084810248</v>
+        <v>1972.928157501479</v>
       </c>
       <c r="AB4" t="n">
-        <v>2557.813455322053</v>
+        <v>2699.447344540895</v>
       </c>
       <c r="AC4" t="n">
-        <v>2313.699329059848</v>
+        <v>2441.815878676055</v>
       </c>
       <c r="AD4" t="n">
-        <v>1869413.084810248</v>
+        <v>1972928.157501479</v>
       </c>
       <c r="AE4" t="n">
-        <v>2557813.455322053</v>
+        <v>2699447.344540895</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.349430954424892e-06</v>
+        <v>1.945426586439558e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.52291666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2313699.329059848</v>
+        <v>2441815.878676055</v>
       </c>
     </row>
     <row r="5">
@@ -4070,28 +4070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1635.643209394094</v>
+        <v>1730.524914289841</v>
       </c>
       <c r="AB5" t="n">
-        <v>2237.959198578636</v>
+        <v>2367.780533102392</v>
       </c>
       <c r="AC5" t="n">
-        <v>2024.371513661753</v>
+        <v>2141.802882223949</v>
       </c>
       <c r="AD5" t="n">
-        <v>1635643.209394094</v>
+        <v>1730524.914289841</v>
       </c>
       <c r="AE5" t="n">
-        <v>2237959.198578637</v>
+        <v>2367780.533102392</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.455488933221313e-06</v>
+        <v>2.098326600314321e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.88125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2024371.513661753</v>
+        <v>2141802.882223949</v>
       </c>
     </row>
     <row r="6">
@@ -4176,28 +4176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1503.969513237965</v>
+        <v>1598.76587727914</v>
       </c>
       <c r="AB6" t="n">
-        <v>2057.797438464328</v>
+        <v>2187.502005865887</v>
       </c>
       <c r="AC6" t="n">
-        <v>1861.404139074136</v>
+        <v>1978.729884604393</v>
       </c>
       <c r="AD6" t="n">
-        <v>1503969.513237965</v>
+        <v>1598765.87727914</v>
       </c>
       <c r="AE6" t="n">
-        <v>2057797.438464328</v>
+        <v>2187502.005865886</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.521866347736267e-06</v>
+        <v>2.194020556728374e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.97083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1861404.139074136</v>
+        <v>1978729.884604393</v>
       </c>
     </row>
     <row r="7">
@@ -4282,28 +4282,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1420.854860725122</v>
+        <v>1507.017946479364</v>
       </c>
       <c r="AB7" t="n">
-        <v>1944.076304136574</v>
+        <v>2061.968439312594</v>
       </c>
       <c r="AC7" t="n">
-        <v>1758.536390198008</v>
+        <v>1865.17706545548</v>
       </c>
       <c r="AD7" t="n">
-        <v>1420854.860725122</v>
+        <v>1507017.946479364</v>
       </c>
       <c r="AE7" t="n">
-        <v>1944076.304136574</v>
+        <v>2061968.439312594</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.566652866980424e-06</v>
+        <v>2.258587687759396e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.4</v>
       </c>
       <c r="AH7" t="n">
-        <v>1758536.390198008</v>
+        <v>1865177.06545548</v>
       </c>
     </row>
     <row r="8">
@@ -4388,28 +4388,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1347.158477282268</v>
+        <v>1433.406814382531</v>
       </c>
       <c r="AB8" t="n">
-        <v>1843.241661055085</v>
+        <v>1961.250440883755</v>
       </c>
       <c r="AC8" t="n">
-        <v>1667.325263929907</v>
+        <v>1774.07145143809</v>
       </c>
       <c r="AD8" t="n">
-        <v>1347158.477282268</v>
+        <v>1433406.814382531</v>
       </c>
       <c r="AE8" t="n">
-        <v>1843241.661055085</v>
+        <v>1961250.440883755</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.599914516451653e-06</v>
+        <v>2.306539824160284e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.99791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1667325.263929907</v>
+        <v>1774071.45143809</v>
       </c>
     </row>
     <row r="9">
@@ -4494,28 +4494,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1292.480762036202</v>
+        <v>1378.729099136465</v>
       </c>
       <c r="AB9" t="n">
-        <v>1768.429198844867</v>
+        <v>1886.437978673536</v>
       </c>
       <c r="AC9" t="n">
-        <v>1599.652798113081</v>
+        <v>1706.398985621265</v>
       </c>
       <c r="AD9" t="n">
-        <v>1292480.762036202</v>
+        <v>1378729.099136465</v>
       </c>
       <c r="AE9" t="n">
-        <v>1768429.198844867</v>
+        <v>1886437.978673536</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.625881944547613e-06</v>
+        <v>2.343976141175013e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.69375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1599652.798113081</v>
+        <v>1706398.985621265</v>
       </c>
     </row>
     <row r="10">
@@ -4600,28 +4600,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1244.758318360921</v>
+        <v>1322.373377174251</v>
       </c>
       <c r="AB10" t="n">
-        <v>1703.133246042721</v>
+        <v>1809.329593645852</v>
       </c>
       <c r="AC10" t="n">
-        <v>1540.588599402927</v>
+        <v>1636.649716638325</v>
       </c>
       <c r="AD10" t="n">
-        <v>1244758.318360921</v>
+        <v>1322373.377174251</v>
       </c>
       <c r="AE10" t="n">
-        <v>1703133.246042721</v>
+        <v>1809329.593645852</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.647181070963401e-06</v>
+        <v>2.374682333782599e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.45208333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1540588.599402927</v>
+        <v>1636649.716638325</v>
       </c>
     </row>
     <row r="11">
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1205.408094467023</v>
+        <v>1283.023153280354</v>
       </c>
       <c r="AB11" t="n">
-        <v>1649.292533701734</v>
+        <v>1755.488881304865</v>
       </c>
       <c r="AC11" t="n">
-        <v>1491.886369081849</v>
+        <v>1587.947486317247</v>
       </c>
       <c r="AD11" t="n">
-        <v>1205408.094467023</v>
+        <v>1283023.153280354</v>
       </c>
       <c r="AE11" t="n">
-        <v>1649292.533701734</v>
+        <v>1755488.881304865</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.660602438293897e-06</v>
+        <v>2.394031441453133e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.30208333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1491886.369081849</v>
+        <v>1587947.486317247</v>
       </c>
     </row>
     <row r="12">
@@ -4812,28 +4812,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1196.360874074066</v>
+        <v>1273.975932887397</v>
       </c>
       <c r="AB12" t="n">
-        <v>1636.913727624896</v>
+        <v>1743.110075228027</v>
       </c>
       <c r="AC12" t="n">
-        <v>1480.688978883222</v>
+        <v>1576.75009611862</v>
       </c>
       <c r="AD12" t="n">
-        <v>1196360.874074066</v>
+        <v>1273975.932887397</v>
       </c>
       <c r="AE12" t="n">
-        <v>1636913.727624896</v>
+        <v>1743110.075228027</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.664395433409037e-06</v>
+        <v>2.399499667533936e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.26041666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1480688.978883222</v>
+        <v>1576750.09611862</v>
       </c>
     </row>
     <row r="13">
@@ -4918,28 +4918,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1200.501065014757</v>
+        <v>1278.116123828088</v>
       </c>
       <c r="AB13" t="n">
-        <v>1642.578519522283</v>
+        <v>1748.774867125414</v>
       </c>
       <c r="AC13" t="n">
-        <v>1485.813130992507</v>
+        <v>1581.874248227905</v>
       </c>
       <c r="AD13" t="n">
-        <v>1200501.065014757</v>
+        <v>1278116.123828088</v>
       </c>
       <c r="AE13" t="n">
-        <v>1642578.519522283</v>
+        <v>1748774.867125414</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.664395433409037e-06</v>
+        <v>2.399499667533936e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.26041666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1485813.130992507</v>
+        <v>1581874.248227905</v>
       </c>
     </row>
   </sheetData>
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4388.287613686297</v>
+        <v>4556.465492585766</v>
       </c>
       <c r="AB2" t="n">
-        <v>6004.24871063202</v>
+        <v>6234.357104026662</v>
       </c>
       <c r="AC2" t="n">
-        <v>5431.211640705065</v>
+        <v>5639.358811993273</v>
       </c>
       <c r="AD2" t="n">
-        <v>4388287.613686297</v>
+        <v>4556465.492585766</v>
       </c>
       <c r="AE2" t="n">
-        <v>6004248.71063202</v>
+        <v>6234357.104026661</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.039263315958624e-07</v>
+        <v>1.176917906589568e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.10625</v>
       </c>
       <c r="AH2" t="n">
-        <v>5431211.640705065</v>
+        <v>5639358.811993273</v>
       </c>
     </row>
     <row r="3">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1913.886517434417</v>
+        <v>2014.810348748433</v>
       </c>
       <c r="AB3" t="n">
-        <v>2618.663967867816</v>
+        <v>2756.752406316852</v>
       </c>
       <c r="AC3" t="n">
-        <v>2368.742354092473</v>
+        <v>2493.651825784274</v>
       </c>
       <c r="AD3" t="n">
-        <v>1913886.517434417</v>
+        <v>2014810.348748433</v>
       </c>
       <c r="AE3" t="n">
-        <v>2618663.967867816</v>
+        <v>2756752.406316852</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.301343487394617e-06</v>
+        <v>1.905117910366406e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.16041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2368742.354092473</v>
+        <v>2493651.825784274</v>
       </c>
     </row>
     <row r="4">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1525.488477481936</v>
+        <v>1617.909544386377</v>
       </c>
       <c r="AB4" t="n">
-        <v>2087.24063469263</v>
+        <v>2213.695215760995</v>
       </c>
       <c r="AC4" t="n">
-        <v>1888.037317978195</v>
+        <v>2002.423251309513</v>
       </c>
       <c r="AD4" t="n">
-        <v>1525488.477481936</v>
+        <v>1617909.544386377</v>
       </c>
       <c r="AE4" t="n">
-        <v>2087240.63469263</v>
+        <v>2213695.215760995</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.481536474052296e-06</v>
+        <v>2.168913664161778e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.22291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1888037.317978195</v>
+        <v>2002423.251309514</v>
       </c>
     </row>
     <row r="5">
@@ -5533,28 +5533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1349.053856679093</v>
+        <v>1441.474834074983</v>
       </c>
       <c r="AB5" t="n">
-        <v>1845.83500276406</v>
+        <v>1972.289461362876</v>
       </c>
       <c r="AC5" t="n">
-        <v>1669.671100745955</v>
+        <v>1784.056923296047</v>
       </c>
       <c r="AD5" t="n">
-        <v>1349053.856679093</v>
+        <v>1441474.834074983</v>
       </c>
       <c r="AE5" t="n">
-        <v>1845835.00276406</v>
+        <v>1972289.461362876</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.575858598559038e-06</v>
+        <v>2.306997706140093e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.95208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1669671.100745955</v>
+        <v>1784056.923296047</v>
       </c>
     </row>
     <row r="6">
@@ -5639,28 +5639,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1249.858566789265</v>
+        <v>1333.862210138703</v>
       </c>
       <c r="AB6" t="n">
-        <v>1710.111630949463</v>
+        <v>1825.049121759353</v>
       </c>
       <c r="AC6" t="n">
-        <v>1546.900977048394</v>
+        <v>1650.86899505117</v>
       </c>
       <c r="AD6" t="n">
-        <v>1249858.566789265</v>
+        <v>1333862.210138703</v>
       </c>
       <c r="AE6" t="n">
-        <v>1710111.630949463</v>
+        <v>1825049.121759353</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.635168350448877e-06</v>
+        <v>2.393824951736056e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.22708333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1546900.977048394</v>
+        <v>1650868.99505117</v>
       </c>
     </row>
     <row r="7">
@@ -5745,28 +5745,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1164.012573472838</v>
+        <v>1248.101468168297</v>
       </c>
       <c r="AB7" t="n">
-        <v>1592.653355635994</v>
+        <v>1707.707491098533</v>
       </c>
       <c r="AC7" t="n">
-        <v>1440.652754677117</v>
+        <v>1544.726284930606</v>
       </c>
       <c r="AD7" t="n">
-        <v>1164012.573472838</v>
+        <v>1248101.468168297</v>
       </c>
       <c r="AE7" t="n">
-        <v>1592653.355635994</v>
+        <v>1707707.491098533</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.676217339034212e-06</v>
+        <v>2.453919126805019e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.75833333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1440652.754677117</v>
+        <v>1544726.284930606</v>
       </c>
     </row>
     <row r="8">
@@ -5851,28 +5851,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1105.857508850703</v>
+        <v>1181.52906949971</v>
       </c>
       <c r="AB8" t="n">
-        <v>1513.08303059961</v>
+        <v>1616.620198273224</v>
       </c>
       <c r="AC8" t="n">
-        <v>1368.676509784554</v>
+        <v>1462.332235490726</v>
       </c>
       <c r="AD8" t="n">
-        <v>1105857.508850703</v>
+        <v>1181529.06949971</v>
       </c>
       <c r="AE8" t="n">
-        <v>1513083.03059961</v>
+        <v>1616620.198273224</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.70458943408584e-06</v>
+        <v>2.495454806632096e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.44583333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1368676.509784554</v>
+        <v>1462332.235490726</v>
       </c>
     </row>
     <row r="9">
@@ -5957,28 +5957,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1094.637938876272</v>
+        <v>1170.309499525279</v>
       </c>
       <c r="AB9" t="n">
-        <v>1497.7319199881</v>
+        <v>1601.269087661714</v>
       </c>
       <c r="AC9" t="n">
-        <v>1354.790487624387</v>
+        <v>1448.446213330559</v>
       </c>
       <c r="AD9" t="n">
-        <v>1094637.938876272</v>
+        <v>1170309.499525279</v>
       </c>
       <c r="AE9" t="n">
-        <v>1497731.9199881</v>
+        <v>1601269.087661714</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.711078796251903e-06</v>
+        <v>2.504954988720204e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1354790.487624387</v>
+        <v>1448446.213330559</v>
       </c>
     </row>
     <row r="10">
@@ -6063,28 +6063,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1099.067295945157</v>
+        <v>1174.738856594164</v>
       </c>
       <c r="AB10" t="n">
-        <v>1503.79236173919</v>
+        <v>1607.329529412805</v>
       </c>
       <c r="AC10" t="n">
-        <v>1360.272529320637</v>
+        <v>1453.92825502681</v>
       </c>
       <c r="AD10" t="n">
-        <v>1099067.295945157</v>
+        <v>1174738.856594164</v>
       </c>
       <c r="AE10" t="n">
-        <v>1503792.361739191</v>
+        <v>1607329.529412805</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.710927880852693e-06</v>
+        <v>2.504734054253038e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.37708333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1360272.529320637</v>
+        <v>1453928.25502681</v>
       </c>
     </row>
   </sheetData>
@@ -6360,28 +6360,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1419.693382866515</v>
+        <v>1520.582795557061</v>
       </c>
       <c r="AB2" t="n">
-        <v>1942.487118889641</v>
+        <v>2080.528464259604</v>
       </c>
       <c r="AC2" t="n">
-        <v>1757.098874560607</v>
+        <v>1881.965747670705</v>
       </c>
       <c r="AD2" t="n">
-        <v>1419693.382866515</v>
+        <v>1520582.795557061</v>
       </c>
       <c r="AE2" t="n">
-        <v>1942487.118889641</v>
+        <v>2080528.464259604</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.414893443551489e-06</v>
+        <v>2.189014801596413e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.79375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1757098.874560607</v>
+        <v>1881965.747670705</v>
       </c>
     </row>
     <row r="3">
@@ -6466,28 +6466,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>906.6842333767332</v>
+        <v>984.3571207191317</v>
       </c>
       <c r="AB3" t="n">
-        <v>1240.565368191359</v>
+        <v>1346.840839339175</v>
       </c>
       <c r="AC3" t="n">
-        <v>1122.167550595605</v>
+        <v>1218.300239935634</v>
       </c>
       <c r="AD3" t="n">
-        <v>906684.2333767333</v>
+        <v>984357.1207191317</v>
       </c>
       <c r="AE3" t="n">
-        <v>1240565.368191359</v>
+        <v>1346840.839339175</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.772237395850497e-06</v>
+        <v>2.741870003808695e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.79583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1122167.550595605</v>
+        <v>1218300.239935634</v>
       </c>
     </row>
     <row r="4">
@@ -6572,28 +6572,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>866.9930246164624</v>
+        <v>944.4953197582688</v>
       </c>
       <c r="AB4" t="n">
-        <v>1186.25810531301</v>
+        <v>1292.300164685978</v>
       </c>
       <c r="AC4" t="n">
-        <v>1073.043296665643</v>
+        <v>1168.96485072302</v>
       </c>
       <c r="AD4" t="n">
-        <v>866993.0246164624</v>
+        <v>944495.3197582688</v>
       </c>
       <c r="AE4" t="n">
-        <v>1186258.10531301</v>
+        <v>1292300.164685978</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.811137703570134e-06</v>
+        <v>2.802053581429352e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.37083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1073043.296665643</v>
+        <v>1168964.85072302</v>
       </c>
     </row>
   </sheetData>
@@ -6869,28 +6869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2138.252171442506</v>
+        <v>2258.488813264105</v>
       </c>
       <c r="AB2" t="n">
-        <v>2925.650953995749</v>
+        <v>3090.164031802506</v>
       </c>
       <c r="AC2" t="n">
-        <v>2646.430933123297</v>
+        <v>2795.243113679616</v>
       </c>
       <c r="AD2" t="n">
-        <v>2138252.171442505</v>
+        <v>2258488.813264105</v>
       </c>
       <c r="AE2" t="n">
-        <v>2925650.953995749</v>
+        <v>3090164.031802506</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.167993517191291e-06</v>
+        <v>1.765181557707553e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.73333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2646430.933123297</v>
+        <v>2795243.113679616</v>
       </c>
     </row>
     <row r="3">
@@ -6975,28 +6975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1238.61467901804</v>
+        <v>1326.680207446638</v>
       </c>
       <c r="AB3" t="n">
-        <v>1694.727247655553</v>
+        <v>1815.222388828474</v>
       </c>
       <c r="AC3" t="n">
-        <v>1532.984857703937</v>
+        <v>1641.980111719307</v>
       </c>
       <c r="AD3" t="n">
-        <v>1238614.67901804</v>
+        <v>1326680.207446638</v>
       </c>
       <c r="AE3" t="n">
-        <v>1694727.247655553</v>
+        <v>1815222.388828474</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582993696540914e-06</v>
+        <v>2.39236882565992e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.20416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1532984.857703937</v>
+        <v>1641980.111719307</v>
       </c>
     </row>
     <row r="4">
@@ -7081,28 +7081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1026.372072556352</v>
+        <v>1106.416135473206</v>
       </c>
       <c r="AB4" t="n">
-        <v>1404.327550011717</v>
+        <v>1513.847368189386</v>
       </c>
       <c r="AC4" t="n">
-        <v>1270.300499624693</v>
+        <v>1369.367900067516</v>
       </c>
       <c r="AD4" t="n">
-        <v>1026372.072556352</v>
+        <v>1106416.135473206</v>
       </c>
       <c r="AE4" t="n">
-        <v>1404327.550011717</v>
+        <v>1513847.368189386</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.727180482456253e-06</v>
+        <v>2.610277445542439e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.43333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1270300.499624693</v>
+        <v>1369367.900067516</v>
       </c>
     </row>
     <row r="5">
@@ -7187,28 +7187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>941.2198103554583</v>
+        <v>1021.349124618332</v>
       </c>
       <c r="AB5" t="n">
-        <v>1287.818468215777</v>
+        <v>1397.454931046095</v>
       </c>
       <c r="AC5" t="n">
-        <v>1164.910881073834</v>
+        <v>1264.083793767369</v>
       </c>
       <c r="AD5" t="n">
-        <v>941219.8103554583</v>
+        <v>1021349.124618332</v>
       </c>
       <c r="AE5" t="n">
-        <v>1287818.468215777</v>
+        <v>1397454.931046095</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.780827632970005e-06</v>
+        <v>2.691354060537833e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.84791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1164910.881073834</v>
+        <v>1264083.793767369</v>
       </c>
     </row>
     <row r="6">
@@ -7293,28 +7293,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>944.5008067600845</v>
+        <v>1024.630121022959</v>
       </c>
       <c r="AB6" t="n">
-        <v>1292.307672243932</v>
+        <v>1401.94413507425</v>
       </c>
       <c r="AC6" t="n">
-        <v>1168.97164177018</v>
+        <v>1268.144554463714</v>
       </c>
       <c r="AD6" t="n">
-        <v>944500.8067600845</v>
+        <v>1024630.121022959</v>
       </c>
       <c r="AE6" t="n">
-        <v>1292307.672243932</v>
+        <v>1401944.13507425</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.782277555956863e-06</v>
+        <v>2.693545320402574e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.83125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1168971.64177018</v>
+        <v>1268144.554463714</v>
       </c>
     </row>
   </sheetData>
@@ -7590,28 +7590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1003.732963562615</v>
+        <v>1086.794640225147</v>
       </c>
       <c r="AB2" t="n">
-        <v>1373.351722319486</v>
+        <v>1487.000372751715</v>
       </c>
       <c r="AC2" t="n">
-        <v>1242.280961452562</v>
+        <v>1345.083144194421</v>
       </c>
       <c r="AD2" t="n">
-        <v>1003732.963562615</v>
+        <v>1086794.640225147</v>
       </c>
       <c r="AE2" t="n">
-        <v>1373351.722319486</v>
+        <v>1487000.372751715</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.635638190728559e-06</v>
+        <v>2.585106516992075e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.27708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1242280.961452562</v>
+        <v>1345083.144194422</v>
       </c>
     </row>
     <row r="3">
@@ -7696,28 +7696,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>814.2846965118504</v>
+        <v>889.7875615372416</v>
       </c>
       <c r="AB3" t="n">
-        <v>1114.140245472956</v>
+        <v>1217.446596352015</v>
       </c>
       <c r="AC3" t="n">
-        <v>1007.808264150673</v>
+        <v>1101.255201893208</v>
       </c>
       <c r="AD3" t="n">
-        <v>814284.6965118503</v>
+        <v>889787.5615372416</v>
       </c>
       <c r="AE3" t="n">
-        <v>1114140.245472956</v>
+        <v>1217446.596352015</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.80966085965231e-06</v>
+        <v>2.860147255273417e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.13333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1007808.264150673</v>
+        <v>1101255.201893208</v>
       </c>
     </row>
   </sheetData>
@@ -7993,28 +7993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4948.113283523942</v>
+        <v>5125.900527024596</v>
       </c>
       <c r="AB2" t="n">
-        <v>6770.226889869402</v>
+        <v>7013.483239846633</v>
       </c>
       <c r="AC2" t="n">
-        <v>6124.085937573129</v>
+        <v>6344.126242920956</v>
       </c>
       <c r="AD2" t="n">
-        <v>4948113.283523942</v>
+        <v>5125900.527024596</v>
       </c>
       <c r="AE2" t="n">
-        <v>6770226.889869402</v>
+        <v>7013483.239846634</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.531828355712456e-07</v>
+        <v>1.09805492902053e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.37083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>6124085.937573128</v>
+        <v>6344126.242920956</v>
       </c>
     </row>
     <row r="3">
@@ -8099,28 +8099,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2034.850660193519</v>
+        <v>2144.929693820671</v>
       </c>
       <c r="AB3" t="n">
-        <v>2784.172444552161</v>
+        <v>2934.787434705051</v>
       </c>
       <c r="AC3" t="n">
-        <v>2518.45493405467</v>
+        <v>2654.695440936835</v>
       </c>
       <c r="AD3" t="n">
-        <v>2034850.660193519</v>
+        <v>2144929.693820671</v>
       </c>
       <c r="AE3" t="n">
-        <v>2784172.444552161</v>
+        <v>2934787.434705051</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.261237262186718e-06</v>
+        <v>1.838740511602489e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.70416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2518454.93405467</v>
+        <v>2654695.440936835</v>
       </c>
     </row>
     <row r="4">
@@ -8205,28 +8205,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1608.050956840549</v>
+        <v>1701.266966017393</v>
       </c>
       <c r="AB4" t="n">
-        <v>2200.206261350605</v>
+        <v>2327.748517506449</v>
       </c>
       <c r="AC4" t="n">
-        <v>1990.221663776186</v>
+        <v>2105.591466011196</v>
       </c>
       <c r="AD4" t="n">
-        <v>1608050.956840549</v>
+        <v>1701266.966017393</v>
       </c>
       <c r="AE4" t="n">
-        <v>2200206.261350606</v>
+        <v>2327748.517506449</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.445943537391343e-06</v>
+        <v>2.108021257698667e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.54791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1990221.663776186</v>
+        <v>2105591.466011196</v>
       </c>
     </row>
     <row r="5">
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1426.016447935053</v>
+        <v>1510.673023113436</v>
       </c>
       <c r="AB5" t="n">
-        <v>1951.138615470359</v>
+        <v>2066.969476413931</v>
       </c>
       <c r="AC5" t="n">
-        <v>1764.924684450113</v>
+        <v>1869.700810594865</v>
       </c>
       <c r="AD5" t="n">
-        <v>1426016.447935053</v>
+        <v>1510673.023113436</v>
       </c>
       <c r="AE5" t="n">
-        <v>1951138.615470359</v>
+        <v>2066969.476413931</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.544353844342471e-06</v>
+        <v>2.251492294889991e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.17708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1764924.684450113</v>
+        <v>1869700.810594865</v>
       </c>
     </row>
     <row r="6">
@@ -8417,28 +8417,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1314.522110033942</v>
+        <v>1399.093344357753</v>
       </c>
       <c r="AB6" t="n">
-        <v>1798.58714357102</v>
+        <v>1914.301237392394</v>
       </c>
       <c r="AC6" t="n">
-        <v>1626.932510921511</v>
+        <v>1731.603014034325</v>
       </c>
       <c r="AD6" t="n">
-        <v>1314522.110033942</v>
+        <v>1399093.344357753</v>
       </c>
       <c r="AE6" t="n">
-        <v>1798587.14357102</v>
+        <v>1914301.237392394</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.604626418356611e-06</v>
+        <v>2.339362854142428e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.41875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1626932.510921512</v>
+        <v>1731603.014034325</v>
       </c>
     </row>
     <row r="7">
@@ -8523,28 +8523,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1229.886696560295</v>
+        <v>1314.543182230127</v>
       </c>
       <c r="AB7" t="n">
-        <v>1682.785237005456</v>
+        <v>1798.61597547948</v>
       </c>
       <c r="AC7" t="n">
-        <v>1522.182575789569</v>
+        <v>1626.958591153094</v>
       </c>
       <c r="AD7" t="n">
-        <v>1229886.696560295</v>
+        <v>1314543.182230127</v>
       </c>
       <c r="AE7" t="n">
-        <v>1682785.237005456</v>
+        <v>1798615.97547948</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.647101383666824e-06</v>
+        <v>2.401286523690052e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.91666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1522182.575789568</v>
+        <v>1626958.591153094</v>
       </c>
     </row>
     <row r="8">
@@ -8629,28 +8629,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1165.748430729436</v>
+        <v>1250.404916399268</v>
       </c>
       <c r="AB8" t="n">
-        <v>1595.028432115088</v>
+        <v>1710.859170589112</v>
       </c>
       <c r="AC8" t="n">
-        <v>1442.801157190488</v>
+        <v>1547.577172554013</v>
       </c>
       <c r="AD8" t="n">
-        <v>1165748.430729436</v>
+        <v>1250404.916399268</v>
       </c>
       <c r="AE8" t="n">
-        <v>1595028.432115088</v>
+        <v>1710859.170589112</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.67791068949043e-06</v>
+        <v>2.446202988221074e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.57083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1442801.157190488</v>
+        <v>1547577.172554014</v>
       </c>
     </row>
     <row r="9">
@@ -8735,28 +8735,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1124.315730286891</v>
+        <v>1200.498122812833</v>
       </c>
       <c r="AB9" t="n">
-        <v>1538.33838348786</v>
+        <v>1642.57449387181</v>
       </c>
       <c r="AC9" t="n">
-        <v>1391.52152723926</v>
+        <v>1485.809489544465</v>
       </c>
       <c r="AD9" t="n">
-        <v>1124315.730286891</v>
+        <v>1200498.122812833</v>
       </c>
       <c r="AE9" t="n">
-        <v>1538338.38348786</v>
+        <v>1642574.49387181</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.695259618983334e-06</v>
+        <v>2.471495754656019e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.37916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1391521.52723926</v>
+        <v>1485809.489544465</v>
       </c>
     </row>
     <row r="10">
@@ -8841,28 +8841,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1121.763441100185</v>
+        <v>1197.945833626128</v>
       </c>
       <c r="AB10" t="n">
-        <v>1534.846228823557</v>
+        <v>1639.082339207507</v>
       </c>
       <c r="AC10" t="n">
-        <v>1388.362658914848</v>
+        <v>1482.650621220054</v>
       </c>
       <c r="AD10" t="n">
-        <v>1121763.441100185</v>
+        <v>1197945.833626128</v>
       </c>
       <c r="AE10" t="n">
-        <v>1534846.228823557</v>
+        <v>1639082.339207507</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.698400373460497e-06</v>
+        <v>2.476074617545104e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.34583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1388362.658914848</v>
+        <v>1482650.621220054</v>
       </c>
     </row>
     <row r="11">
@@ -8947,28 +8947,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1126.917937460359</v>
+        <v>1203.100329986301</v>
       </c>
       <c r="AB11" t="n">
-        <v>1541.898838143877</v>
+        <v>1646.134948527827</v>
       </c>
       <c r="AC11" t="n">
-        <v>1394.742177100036</v>
+        <v>1489.030139405241</v>
       </c>
       <c r="AD11" t="n">
-        <v>1126917.937460359</v>
+        <v>1203100.329986301</v>
       </c>
       <c r="AE11" t="n">
-        <v>1541898.838143877</v>
+        <v>1646134.948527827</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.698101253986482e-06</v>
+        <v>2.475638535365191e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.34791666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1394742.177100036</v>
+        <v>1489030.139405241</v>
       </c>
     </row>
   </sheetData>
@@ -9244,28 +9244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>815.6355534540361</v>
+        <v>897.2539430449258</v>
       </c>
       <c r="AB2" t="n">
-        <v>1115.988547536857</v>
+        <v>1227.662428924333</v>
       </c>
       <c r="AC2" t="n">
-        <v>1009.480166859703</v>
+        <v>1110.496049742835</v>
       </c>
       <c r="AD2" t="n">
-        <v>815635.5534540361</v>
+        <v>897253.9430449258</v>
       </c>
       <c r="AE2" t="n">
-        <v>1115988.547536857</v>
+        <v>1227662.428924333</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.75943794649822e-06</v>
+        <v>2.819032878178316e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.19375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1009480.166859703</v>
+        <v>1110496.049742835</v>
       </c>
     </row>
     <row r="3">
@@ -9350,28 +9350,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>785.031179749308</v>
+        <v>866.7348206862179</v>
       </c>
       <c r="AB3" t="n">
-        <v>1074.11429326437</v>
+        <v>1185.904819304496</v>
       </c>
       <c r="AC3" t="n">
-        <v>971.6023326440971</v>
+        <v>1072.723727777941</v>
       </c>
       <c r="AD3" t="n">
-        <v>785031.1797493079</v>
+        <v>866734.8206862179</v>
       </c>
       <c r="AE3" t="n">
-        <v>1074114.29326437</v>
+        <v>1185904.819304496</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.793982353789588e-06</v>
+        <v>2.874381133060148e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.78541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>971602.3326440972</v>
+        <v>1072723.727777941</v>
       </c>
     </row>
   </sheetData>
@@ -9647,28 +9647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3078.634695749494</v>
+        <v>3218.428721522442</v>
       </c>
       <c r="AB2" t="n">
-        <v>4212.323810501796</v>
+        <v>4403.596163841506</v>
       </c>
       <c r="AC2" t="n">
-        <v>3810.305538060945</v>
+        <v>3983.32312645034</v>
       </c>
       <c r="AD2" t="n">
-        <v>3078634.695749494</v>
+        <v>3218428.721522442</v>
       </c>
       <c r="AE2" t="n">
-        <v>4212323.810501796</v>
+        <v>4403596.163841506</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.70721733135545e-07</v>
+        <v>1.441369561752045e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.37083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3810305.538060945</v>
+        <v>3983323.12645034</v>
       </c>
     </row>
     <row r="3">
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1563.650751055641</v>
+        <v>1662.363964064744</v>
       </c>
       <c r="AB3" t="n">
-        <v>2139.45594099686</v>
+        <v>2274.519713955518</v>
       </c>
       <c r="AC3" t="n">
-        <v>1935.269268733392</v>
+        <v>2057.442744764071</v>
       </c>
       <c r="AD3" t="n">
-        <v>1563650.751055641</v>
+        <v>1662363.964064744</v>
       </c>
       <c r="AE3" t="n">
-        <v>2139455.94099686</v>
+        <v>2274519.713955518</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.429882597775825e-06</v>
+        <v>2.123151448001251e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.65416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1935269.268733392</v>
+        <v>2057442.744764071</v>
       </c>
     </row>
     <row r="4">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1278.100749955844</v>
+        <v>1360.347626829552</v>
       </c>
       <c r="AB4" t="n">
-        <v>1748.753831915162</v>
+        <v>1861.287637329893</v>
       </c>
       <c r="AC4" t="n">
-        <v>1581.855220588597</v>
+        <v>1683.648957556733</v>
       </c>
       <c r="AD4" t="n">
-        <v>1278100.749955844</v>
+        <v>1360347.626829552</v>
       </c>
       <c r="AE4" t="n">
-        <v>1748753.831915163</v>
+        <v>1861287.637329893</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.594390621747858e-06</v>
+        <v>2.367420068269337e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.31666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1581855.220588597</v>
+        <v>1683648.957556733</v>
       </c>
     </row>
     <row r="5">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1139.561840322601</v>
+        <v>1221.723376341738</v>
       </c>
       <c r="AB5" t="n">
-        <v>1559.198783849623</v>
+        <v>1671.615822142156</v>
       </c>
       <c r="AC5" t="n">
-        <v>1410.391040268252</v>
+        <v>1512.07915420445</v>
       </c>
       <c r="AD5" t="n">
-        <v>1139561.840322601</v>
+        <v>1221723.376341738</v>
       </c>
       <c r="AE5" t="n">
-        <v>1559198.783849623</v>
+        <v>1671615.822142156</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.680065405498889e-06</v>
+        <v>2.494633688087594e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.28125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1410391.040268252</v>
+        <v>1512079.15420445</v>
       </c>
     </row>
     <row r="6">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1040.590040953871</v>
+        <v>1122.836828319028</v>
       </c>
       <c r="AB6" t="n">
-        <v>1423.781201625698</v>
+        <v>1536.31488457088</v>
       </c>
       <c r="AC6" t="n">
-        <v>1287.897522032008</v>
+        <v>1389.691148218918</v>
       </c>
       <c r="AD6" t="n">
-        <v>1040590.040953871</v>
+        <v>1122836.828319028</v>
       </c>
       <c r="AE6" t="n">
-        <v>1423781.201625698</v>
+        <v>1536314.88457088</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.733087367856605e-06</v>
+        <v>2.573362988192903e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.69166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1287897.522032008</v>
+        <v>1389691.148218918</v>
       </c>
     </row>
     <row r="7">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1017.685659642654</v>
+        <v>1099.932447007811</v>
       </c>
       <c r="AB7" t="n">
-        <v>1392.442416645703</v>
+        <v>1504.976099590885</v>
       </c>
       <c r="AC7" t="n">
-        <v>1259.549666706242</v>
+        <v>1361.343292893152</v>
       </c>
       <c r="AD7" t="n">
-        <v>1017685.659642654</v>
+        <v>1099932.447007811</v>
       </c>
       <c r="AE7" t="n">
-        <v>1392442.416645703</v>
+        <v>1504976.099590885</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.746303986039613e-06</v>
+        <v>2.592987593791001e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.55</v>
       </c>
       <c r="AH7" t="n">
-        <v>1259549.666706242</v>
+        <v>1361343.292893152</v>
       </c>
     </row>
     <row r="8">
@@ -10283,28 +10283,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1022.341004340422</v>
+        <v>1104.58779170558</v>
       </c>
       <c r="AB8" t="n">
-        <v>1398.812064640503</v>
+        <v>1511.345747585685</v>
       </c>
       <c r="AC8" t="n">
-        <v>1265.311404436276</v>
+        <v>1367.105030623185</v>
       </c>
       <c r="AD8" t="n">
-        <v>1022341.004340422</v>
+        <v>1104587.791705579</v>
       </c>
       <c r="AE8" t="n">
-        <v>1398812.064640503</v>
+        <v>1511345.747585685</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.746459475665296e-06</v>
+        <v>2.59321847150392e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.54791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1265311.404436276</v>
+        <v>1367105.030623185</v>
       </c>
     </row>
   </sheetData>
@@ -10580,28 +10580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3891.696607365859</v>
+        <v>4050.337631476554</v>
       </c>
       <c r="AB2" t="n">
-        <v>5324.79098773535</v>
+        <v>5541.850635671652</v>
       </c>
       <c r="AC2" t="n">
-        <v>4816.600409256775</v>
+        <v>5012.944189039158</v>
       </c>
       <c r="AD2" t="n">
-        <v>3891696.607365859</v>
+        <v>4050337.631476554</v>
       </c>
       <c r="AE2" t="n">
-        <v>5324790.98773535</v>
+        <v>5541850.635671652</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.577240541179892e-07</v>
+        <v>1.261233884557029e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.00625</v>
       </c>
       <c r="AH2" t="n">
-        <v>4816600.409256776</v>
+        <v>5012944.189039158</v>
       </c>
     </row>
     <row r="3">
@@ -10686,28 +10686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1792.511902238181</v>
+        <v>1892.813975697942</v>
       </c>
       <c r="AB3" t="n">
-        <v>2452.593864686217</v>
+        <v>2589.83158660904</v>
       </c>
       <c r="AC3" t="n">
-        <v>2218.521748477673</v>
+        <v>2342.661694834534</v>
       </c>
       <c r="AD3" t="n">
-        <v>1792511.902238181</v>
+        <v>1892813.975697942</v>
       </c>
       <c r="AE3" t="n">
-        <v>2452593.864686217</v>
+        <v>2589831.58660904</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.341736366717075e-06</v>
+        <v>1.972946149430507e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.65625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2218521.748477673</v>
+        <v>2342661.694834534</v>
       </c>
     </row>
     <row r="4">
@@ -10792,28 +10792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1436.916932611327</v>
+        <v>1528.775159094869</v>
       </c>
       <c r="AB4" t="n">
-        <v>1966.05313949988</v>
+        <v>2091.737617473604</v>
       </c>
       <c r="AC4" t="n">
-        <v>1778.415787238922</v>
+        <v>1892.105115034106</v>
       </c>
       <c r="AD4" t="n">
-        <v>1436916.932611326</v>
+        <v>1528775.159094869</v>
       </c>
       <c r="AE4" t="n">
-        <v>1966053.13949988</v>
+        <v>2091737.617473603</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.517242247772834e-06</v>
+        <v>2.231017452274148e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.92083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1778415.787238922</v>
+        <v>1892105.115034106</v>
       </c>
     </row>
     <row r="5">
@@ -10898,28 +10898,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1279.205209818646</v>
+        <v>1362.790271035113</v>
       </c>
       <c r="AB5" t="n">
-        <v>1750.265002624778</v>
+        <v>1864.629770893797</v>
       </c>
       <c r="AC5" t="n">
-        <v>1583.222167286628</v>
+        <v>1686.672122584012</v>
       </c>
       <c r="AD5" t="n">
-        <v>1279205.209818646</v>
+        <v>1362790.271035113</v>
       </c>
       <c r="AE5" t="n">
-        <v>1750265.002624778</v>
+        <v>1864629.770893797</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.609108607387958e-06</v>
+        <v>2.366101649856366e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.725</v>
       </c>
       <c r="AH5" t="n">
-        <v>1583222.167286628</v>
+        <v>1686672.122584012</v>
       </c>
     </row>
     <row r="6">
@@ -11004,28 +11004,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1183.972702294399</v>
+        <v>1259.199346897771</v>
       </c>
       <c r="AB6" t="n">
-        <v>1619.963684468389</v>
+        <v>1722.892098380055</v>
       </c>
       <c r="AC6" t="n">
-        <v>1465.356624056036</v>
+        <v>1558.461694604909</v>
       </c>
       <c r="AD6" t="n">
-        <v>1183972.702294399</v>
+        <v>1259199.346897771</v>
       </c>
       <c r="AE6" t="n">
-        <v>1619963.684468389</v>
+        <v>1722892.098380055</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.666544125754296e-06</v>
+        <v>2.450557275873773e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.04583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1465356.624056036</v>
+        <v>1558461.694604909</v>
       </c>
     </row>
     <row r="7">
@@ -11110,28 +11110,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1103.821323837526</v>
+        <v>1187.321044199422</v>
       </c>
       <c r="AB7" t="n">
-        <v>1510.297032434439</v>
+        <v>1624.54503358126</v>
       </c>
       <c r="AC7" t="n">
-        <v>1366.156403374093</v>
+        <v>1469.500735639539</v>
       </c>
       <c r="AD7" t="n">
-        <v>1103821.323837526</v>
+        <v>1187321.044199422</v>
       </c>
       <c r="AE7" t="n">
-        <v>1510297.032434439</v>
+        <v>1624545.03358126</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.70478368838016e-06</v>
+        <v>2.506786353142656e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.61875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1366156.403374093</v>
+        <v>1469500.735639539</v>
       </c>
     </row>
     <row r="8">
@@ -11216,28 +11216,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1067.847547788325</v>
+        <v>1142.988851537125</v>
       </c>
       <c r="AB8" t="n">
-        <v>1461.076124992931</v>
+        <v>1563.887771782398</v>
       </c>
       <c r="AC8" t="n">
-        <v>1321.633070256825</v>
+        <v>1414.632517773759</v>
       </c>
       <c r="AD8" t="n">
-        <v>1067847.547788325</v>
+        <v>1142988.851537125</v>
       </c>
       <c r="AE8" t="n">
-        <v>1461076.124992931</v>
+        <v>1563887.771782398</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.722151457859636e-06</v>
+        <v>2.532324659153225e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.42916666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1321633.070256825</v>
+        <v>1414632.517773759</v>
       </c>
     </row>
     <row r="9">
@@ -11322,28 +11322,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1071.128114777825</v>
+        <v>1146.269418526625</v>
       </c>
       <c r="AB9" t="n">
-        <v>1465.564741476365</v>
+        <v>1568.376388265834</v>
       </c>
       <c r="AC9" t="n">
-        <v>1325.693299482894</v>
+        <v>1418.692746999828</v>
       </c>
       <c r="AD9" t="n">
-        <v>1071128.114777825</v>
+        <v>1146269.418526625</v>
       </c>
       <c r="AE9" t="n">
-        <v>1465564.741476366</v>
+        <v>1568376.388265834</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.722913202135052e-06</v>
+        <v>2.533444760294039e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.42083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1325693.299482894</v>
+        <v>1418692.746999828</v>
       </c>
     </row>
   </sheetData>
@@ -11619,28 +11619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6347.889949779441</v>
+        <v>6553.772493924768</v>
       </c>
       <c r="AB2" t="n">
-        <v>8685.463078428435</v>
+        <v>8967.160658224899</v>
       </c>
       <c r="AC2" t="n">
-        <v>7856.534672346888</v>
+        <v>8111.347430492605</v>
       </c>
       <c r="AD2" t="n">
-        <v>6347889.949779441</v>
+        <v>6553772.493924769</v>
       </c>
       <c r="AE2" t="n">
-        <v>8685463.078428434</v>
+        <v>8967160.658224899</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.573163288478287e-07</v>
+        <v>9.509871927592997e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.60833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>7856534.672346888</v>
+        <v>8111347.430492605</v>
       </c>
     </row>
     <row r="3">
@@ -11725,28 +11725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2297.453379855519</v>
+        <v>2417.430631062985</v>
       </c>
       <c r="AB3" t="n">
-        <v>3143.477070808239</v>
+        <v>3307.635238933063</v>
       </c>
       <c r="AC3" t="n">
-        <v>2843.46803106796</v>
+        <v>2991.959174024381</v>
       </c>
       <c r="AD3" t="n">
-        <v>2297453.379855519</v>
+        <v>2417430.631062985</v>
       </c>
       <c r="AE3" t="n">
-        <v>3143477.070808239</v>
+        <v>3307635.238933063</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.186110404583129e-06</v>
+        <v>1.716031923220696e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.82916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2843468.031067959</v>
+        <v>2991959.174024381</v>
       </c>
     </row>
     <row r="4">
@@ -11831,28 +11831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1779.390714828466</v>
+        <v>1873.707410774066</v>
       </c>
       <c r="AB4" t="n">
-        <v>2434.64087720631</v>
+        <v>2563.689141558039</v>
       </c>
       <c r="AC4" t="n">
-        <v>2202.282168925671</v>
+        <v>2319.014248048049</v>
       </c>
       <c r="AD4" t="n">
-        <v>1779390.714828466</v>
+        <v>1873707.410774066</v>
       </c>
       <c r="AE4" t="n">
-        <v>2434640.87720631</v>
+        <v>2563689.141558039</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.382422999440366e-06</v>
+        <v>2.000051588172299e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.16041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2202282.168925671</v>
+        <v>2319014.248048048</v>
       </c>
     </row>
     <row r="5">
@@ -11937,28 +11937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1566.29729703827</v>
+        <v>1660.613903475318</v>
       </c>
       <c r="AB5" t="n">
-        <v>2143.07706196766</v>
+        <v>2272.125203849842</v>
       </c>
       <c r="AC5" t="n">
-        <v>1938.544795001014</v>
+        <v>2055.276763342165</v>
       </c>
       <c r="AD5" t="n">
-        <v>1566297.297038269</v>
+        <v>1660613.903475319</v>
       </c>
       <c r="AE5" t="n">
-        <v>2143077.061967661</v>
+        <v>2272125.203849842</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.483887936108152e-06</v>
+        <v>2.146848268933802e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.64583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1938544.795001014</v>
+        <v>2055276.763342165</v>
       </c>
     </row>
     <row r="6">
@@ -12043,28 +12043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1440.80913120276</v>
+        <v>1526.629083286052</v>
       </c>
       <c r="AB6" t="n">
-        <v>1971.378617324362</v>
+        <v>2088.801261873798</v>
       </c>
       <c r="AC6" t="n">
-        <v>1783.233008934191</v>
+        <v>1889.449001091545</v>
       </c>
       <c r="AD6" t="n">
-        <v>1440809.13120276</v>
+        <v>1526629.083286052</v>
       </c>
       <c r="AE6" t="n">
-        <v>1971378.617324362</v>
+        <v>2088801.261873798</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.548590214562972e-06</v>
+        <v>2.240457746520847e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.78125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1783233.008934191</v>
+        <v>1889449.001091545</v>
       </c>
     </row>
     <row r="7">
@@ -12149,28 +12149,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1361.683563441307</v>
+        <v>1447.332923324006</v>
       </c>
       <c r="AB7" t="n">
-        <v>1863.115524739459</v>
+        <v>1980.304757514047</v>
       </c>
       <c r="AC7" t="n">
-        <v>1685.302393957386</v>
+        <v>1791.307250832089</v>
       </c>
       <c r="AD7" t="n">
-        <v>1361683.563441307</v>
+        <v>1447332.923324006</v>
       </c>
       <c r="AE7" t="n">
-        <v>1863115.524739459</v>
+        <v>1980304.757514047</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.592264252519975e-06</v>
+        <v>2.303644143892102e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.24166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1685302.393957386</v>
+        <v>1791307.250832089</v>
       </c>
     </row>
     <row r="8">
@@ -12255,28 +12255,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1288.659130076228</v>
+        <v>1374.393741304948</v>
       </c>
       <c r="AB8" t="n">
-        <v>1763.200273398728</v>
+        <v>1880.506150825966</v>
       </c>
       <c r="AC8" t="n">
-        <v>1594.922913972679</v>
+        <v>1701.033283098094</v>
       </c>
       <c r="AD8" t="n">
-        <v>1288659.130076228</v>
+        <v>1374393.741304948</v>
       </c>
       <c r="AE8" t="n">
-        <v>1763200.273398728</v>
+        <v>1880506.150825966</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.624321290481682e-06</v>
+        <v>2.35002338506023e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.86041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1594922.913972679</v>
+        <v>1701033.283098094</v>
       </c>
     </row>
     <row r="9">
@@ -12361,28 +12361,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1233.288353997111</v>
+        <v>1319.022965225832</v>
       </c>
       <c r="AB9" t="n">
-        <v>1687.439534781043</v>
+        <v>1804.745412208281</v>
       </c>
       <c r="AC9" t="n">
-        <v>1526.392673917801</v>
+        <v>1632.503043043217</v>
       </c>
       <c r="AD9" t="n">
-        <v>1233288.353997111</v>
+        <v>1319022.965225832</v>
       </c>
       <c r="AE9" t="n">
-        <v>1687439.534781043</v>
+        <v>1804745.412208281</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.651084505660721e-06</v>
+        <v>2.388743668971234e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.55625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1526392.673917801</v>
+        <v>1632503.043043217</v>
       </c>
     </row>
     <row r="10">
@@ -12467,28 +12467,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1188.085481004662</v>
+        <v>1265.238186533604</v>
       </c>
       <c r="AB10" t="n">
-        <v>1625.590969742762</v>
+        <v>1731.154705184605</v>
       </c>
       <c r="AC10" t="n">
-        <v>1470.446849121768</v>
+        <v>1565.935729812674</v>
       </c>
       <c r="AD10" t="n">
-        <v>1188085.481004662</v>
+        <v>1265238.186533605</v>
       </c>
       <c r="AE10" t="n">
-        <v>1625590.969742762</v>
+        <v>1731154.705184605</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.668730581602944e-06</v>
+        <v>2.414273526494974e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.35833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1470446.849121768</v>
+        <v>1565935.729812674</v>
       </c>
     </row>
     <row r="11">
@@ -12573,28 +12573,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1171.881185375969</v>
+        <v>1249.033890904911</v>
       </c>
       <c r="AB11" t="n">
-        <v>1603.419537580515</v>
+        <v>1708.983273022358</v>
       </c>
       <c r="AC11" t="n">
-        <v>1450.391427327285</v>
+        <v>1545.880308018191</v>
       </c>
       <c r="AD11" t="n">
-        <v>1171881.185375969</v>
+        <v>1249033.890904911</v>
       </c>
       <c r="AE11" t="n">
-        <v>1603419.537580515</v>
+        <v>1708983.273022358</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.676524265144093e-06</v>
+        <v>2.425549213567958e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.27291666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1450391.427327285</v>
+        <v>1545880.308018191</v>
       </c>
     </row>
     <row r="12">
@@ -12679,28 +12679,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1175.184193641275</v>
+        <v>1252.336899170217</v>
       </c>
       <c r="AB12" t="n">
-        <v>1607.938859207546</v>
+        <v>1713.502594649389</v>
       </c>
       <c r="AC12" t="n">
-        <v>1454.47943124114</v>
+        <v>1549.968311932046</v>
       </c>
       <c r="AD12" t="n">
-        <v>1175184.193641274</v>
+        <v>1252336.899170217</v>
       </c>
       <c r="AE12" t="n">
-        <v>1607938.859207546</v>
+        <v>1713502.594649389</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.675936062612685e-06</v>
+        <v>2.424698218317168e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.27916666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1454479.43124114</v>
+        <v>1549968.311932046</v>
       </c>
     </row>
     <row r="13">
@@ -12785,28 +12785,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1179.431948612904</v>
+        <v>1256.584654141846</v>
       </c>
       <c r="AB13" t="n">
-        <v>1613.750824957453</v>
+        <v>1719.314560399296</v>
       </c>
       <c r="AC13" t="n">
-        <v>1459.736711137021</v>
+        <v>1555.225591827928</v>
       </c>
       <c r="AD13" t="n">
-        <v>1179431.948612904</v>
+        <v>1256584.654141846</v>
       </c>
       <c r="AE13" t="n">
-        <v>1613750.824957453</v>
+        <v>1719314.560399296</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.675936062612685e-06</v>
+        <v>2.424698218317168e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.27916666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1459736.711137021</v>
+        <v>1555225.591827928</v>
       </c>
     </row>
   </sheetData>
@@ -13082,28 +13082,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2422.320955146924</v>
+        <v>2543.672842298888</v>
       </c>
       <c r="AB2" t="n">
-        <v>3314.326396090582</v>
+        <v>3480.365401759326</v>
       </c>
       <c r="AC2" t="n">
-        <v>2998.011736533883</v>
+        <v>3148.204212538805</v>
       </c>
       <c r="AD2" t="n">
-        <v>2422320.955146925</v>
+        <v>2543672.842298888</v>
       </c>
       <c r="AE2" t="n">
-        <v>3314326.396090582</v>
+        <v>3480365.401759326</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.098649924524379e-06</v>
+        <v>1.649825687868767e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.16875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2998011.736533883</v>
+        <v>3148204.212538805</v>
       </c>
     </row>
     <row r="3">
@@ -13188,28 +13188,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1345.04065757777</v>
+        <v>1434.094559142958</v>
       </c>
       <c r="AB3" t="n">
-        <v>1840.34396670378</v>
+        <v>1962.191443606128</v>
       </c>
       <c r="AC3" t="n">
-        <v>1664.70412146055</v>
+        <v>1774.922646181346</v>
       </c>
       <c r="AD3" t="n">
-        <v>1345040.65757777</v>
+        <v>1434094.559142958</v>
       </c>
       <c r="AE3" t="n">
-        <v>1840343.96670378</v>
+        <v>1962191.443606128</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.527387478331677e-06</v>
+        <v>2.293654275880108e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.7</v>
       </c>
       <c r="AH3" t="n">
-        <v>1664704.12146055</v>
+        <v>1774922.646181346</v>
       </c>
     </row>
     <row r="4">
@@ -13294,28 +13294,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1108.55408263197</v>
+        <v>1189.512174963959</v>
       </c>
       <c r="AB4" t="n">
-        <v>1516.772601811578</v>
+        <v>1627.543035359167</v>
       </c>
       <c r="AC4" t="n">
-        <v>1372.013953498397</v>
+        <v>1472.212612335484</v>
       </c>
       <c r="AD4" t="n">
-        <v>1108554.08263197</v>
+        <v>1189512.174963959</v>
       </c>
       <c r="AE4" t="n">
-        <v>1516772.601811578</v>
+        <v>1627543.035359167</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.680269403826598e-06</v>
+        <v>2.523234711159848e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.725</v>
       </c>
       <c r="AH4" t="n">
-        <v>1372013.953498397</v>
+        <v>1472212.612335484</v>
       </c>
     </row>
     <row r="5">
@@ -13400,28 +13400,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>986.3692851657148</v>
+        <v>1067.242036643133</v>
       </c>
       <c r="AB5" t="n">
-        <v>1349.59397150542</v>
+        <v>1460.247637930812</v>
       </c>
       <c r="AC5" t="n">
-        <v>1220.790617031978</v>
+        <v>1320.883652837126</v>
       </c>
       <c r="AD5" t="n">
-        <v>986369.2851657148</v>
+        <v>1067242.036643133</v>
       </c>
       <c r="AE5" t="n">
-        <v>1349593.97150542</v>
+        <v>1460247.637930812</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.757903513755341e-06</v>
+        <v>2.639816659564128e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.85416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1220790.617031978</v>
+        <v>1320883.652837126</v>
       </c>
     </row>
     <row r="6">
@@ -13506,28 +13506,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>967.4208360864071</v>
+        <v>1048.293587563825</v>
       </c>
       <c r="AB6" t="n">
-        <v>1323.667867528536</v>
+        <v>1434.321533953927</v>
       </c>
       <c r="AC6" t="n">
-        <v>1197.338864031132</v>
+        <v>1297.43189983628</v>
       </c>
       <c r="AD6" t="n">
-        <v>967420.8360864071</v>
+        <v>1048293.587563825</v>
       </c>
       <c r="AE6" t="n">
-        <v>1323667.867528536</v>
+        <v>1434321.533953927</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.771744021058211e-06</v>
+        <v>2.660600736431285e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.70625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1197338.864031132</v>
+        <v>1297431.89983628</v>
       </c>
     </row>
     <row r="7">
@@ -13612,28 +13612,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>973.0504221973836</v>
+        <v>1053.923173674801</v>
       </c>
       <c r="AB7" t="n">
-        <v>1331.370515605385</v>
+        <v>1442.024182030777</v>
       </c>
       <c r="AC7" t="n">
-        <v>1204.306382186261</v>
+        <v>1304.399417991409</v>
       </c>
       <c r="AD7" t="n">
-        <v>973050.4221973836</v>
+        <v>1053923.173674801</v>
       </c>
       <c r="AE7" t="n">
-        <v>1331370.515605385</v>
+        <v>1442024.182030777</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.771425848476536e-06</v>
+        <v>2.660122941560775e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.70833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1204306.382186261</v>
+        <v>1304399.417991409</v>
       </c>
     </row>
   </sheetData>
@@ -13909,28 +13909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1646.019529132738</v>
+        <v>1748.090773683763</v>
       </c>
       <c r="AB2" t="n">
-        <v>2252.156537015969</v>
+        <v>2391.814916876181</v>
       </c>
       <c r="AC2" t="n">
-        <v>2037.213878044716</v>
+        <v>2163.543458142837</v>
       </c>
       <c r="AD2" t="n">
-        <v>1646019.529132738</v>
+        <v>1748090.773683764</v>
       </c>
       <c r="AE2" t="n">
-        <v>2252156.537015969</v>
+        <v>2391814.916876181</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.325887154917905e-06</v>
+        <v>2.033575113239379e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.0375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2037213.878044717</v>
+        <v>2163543.458142837</v>
       </c>
     </row>
     <row r="3">
@@ -14015,28 +14015,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1023.053000226098</v>
+        <v>1101.549668800882</v>
       </c>
       <c r="AB3" t="n">
-        <v>1399.786248822325</v>
+        <v>1507.188853794954</v>
       </c>
       <c r="AC3" t="n">
-        <v>1266.192613847061</v>
+        <v>1363.344864941605</v>
       </c>
       <c r="AD3" t="n">
-        <v>1023053.000226098</v>
+        <v>1101549.668800882</v>
       </c>
       <c r="AE3" t="n">
-        <v>1399786.248822325</v>
+        <v>1507188.853794954</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.70355205006325e-06</v>
+        <v>2.61281741833531e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.26666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1266192.613847061</v>
+        <v>1363344.864941605</v>
       </c>
     </row>
     <row r="4">
@@ -14121,28 +14121,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>892.4020658480677</v>
+        <v>970.8133935682799</v>
       </c>
       <c r="AB4" t="n">
-        <v>1221.023876493877</v>
+        <v>1328.309714344308</v>
       </c>
       <c r="AC4" t="n">
-        <v>1104.491071439075</v>
+        <v>1201.537699501679</v>
       </c>
       <c r="AD4" t="n">
-        <v>892402.0658480676</v>
+        <v>970813.3935682799</v>
       </c>
       <c r="AE4" t="n">
-        <v>1221023.876493877</v>
+        <v>1328309.714344308</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.803644018763464e-06</v>
+        <v>2.766333149918436e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.14166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1104491.071439075</v>
+        <v>1201537.699501679</v>
       </c>
     </row>
     <row r="5">
@@ -14227,28 +14227,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>898.6488133705897</v>
+        <v>977.0601410908018</v>
       </c>
       <c r="AB5" t="n">
-        <v>1229.570952041242</v>
+        <v>1336.856789891673</v>
       </c>
       <c r="AC5" t="n">
-        <v>1112.222426092095</v>
+        <v>1209.2690541547</v>
       </c>
       <c r="AD5" t="n">
-        <v>898648.8133705896</v>
+        <v>977060.1410908018</v>
       </c>
       <c r="AE5" t="n">
-        <v>1229570.952041242</v>
+        <v>1336856.789891673</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.802649727683661e-06</v>
+        <v>2.764808159207345e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.15</v>
       </c>
       <c r="AH5" t="n">
-        <v>1112222.426092095</v>
+        <v>1209269.0541547</v>
       </c>
     </row>
   </sheetData>
@@ -25793,28 +25793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1208.663311475688</v>
+        <v>1300.682432556785</v>
       </c>
       <c r="AB2" t="n">
-        <v>1653.746465223029</v>
+        <v>1779.651086283295</v>
       </c>
       <c r="AC2" t="n">
-        <v>1495.915223629883</v>
+        <v>1609.803684364404</v>
       </c>
       <c r="AD2" t="n">
-        <v>1208663.311475688</v>
+        <v>1300682.432556785</v>
       </c>
       <c r="AE2" t="n">
-        <v>1653746.465223029</v>
+        <v>1779651.086283295</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.517108807350573e-06</v>
+        <v>2.370452585959465e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.53958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1495915.223629883</v>
+        <v>1609803.684364404</v>
       </c>
     </row>
     <row r="3">
@@ -25899,28 +25899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>837.0823712794572</v>
+        <v>913.7649721803714</v>
       </c>
       <c r="AB3" t="n">
-        <v>1145.333029852424</v>
+        <v>1250.253547402646</v>
       </c>
       <c r="AC3" t="n">
-        <v>1036.024052968311</v>
+        <v>1130.931103580411</v>
       </c>
       <c r="AD3" t="n">
-        <v>837082.3712794572</v>
+        <v>913764.9721803714</v>
       </c>
       <c r="AE3" t="n">
-        <v>1145333.029852424</v>
+        <v>1250253.547402646</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.811616483172978e-06</v>
+        <v>2.83061502016041e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.71458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1036024.052968311</v>
+        <v>1130931.103580412</v>
       </c>
     </row>
     <row r="4">
@@ -26005,28 +26005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>841.3284073844487</v>
+        <v>918.0110082853629</v>
       </c>
       <c r="AB4" t="n">
-        <v>1151.142643773165</v>
+        <v>1256.063161323388</v>
       </c>
       <c r="AC4" t="n">
-        <v>1041.279205490302</v>
+        <v>1136.186256102402</v>
       </c>
       <c r="AD4" t="n">
-        <v>841328.4073844487</v>
+        <v>918011.0082853629</v>
       </c>
       <c r="AE4" t="n">
-        <v>1151142.643773166</v>
+        <v>1256063.161323388</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.813845004584905e-06</v>
+        <v>2.834097040908147e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.68958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1041279.205490302</v>
+        <v>1136186.256102402</v>
       </c>
     </row>
   </sheetData>
@@ -26302,28 +26302,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>755.1457096543537</v>
+        <v>842.4761018551869</v>
       </c>
       <c r="AB2" t="n">
-        <v>1033.223674626566</v>
+        <v>1152.712969980736</v>
       </c>
       <c r="AC2" t="n">
-        <v>934.6142572587404</v>
+        <v>1042.699661968588</v>
       </c>
       <c r="AD2" t="n">
-        <v>755145.7096543537</v>
+        <v>842476.101855187</v>
       </c>
       <c r="AE2" t="n">
-        <v>1033223.674626565</v>
+        <v>1152712.969980736</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.745338837062873e-06</v>
+        <v>2.844337046926238e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.9625</v>
       </c>
       <c r="AH2" t="n">
-        <v>934614.2572587404</v>
+        <v>1042699.661968588</v>
       </c>
     </row>
   </sheetData>
@@ -26599,28 +26599,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3465.04060982163</v>
+        <v>3614.219539127019</v>
       </c>
       <c r="AB2" t="n">
-        <v>4741.021429161131</v>
+        <v>4945.134621546653</v>
       </c>
       <c r="AC2" t="n">
-        <v>4288.544998027182</v>
+        <v>4473.177913806087</v>
       </c>
       <c r="AD2" t="n">
-        <v>3465040.60982163</v>
+        <v>3614219.539127019</v>
       </c>
       <c r="AE2" t="n">
-        <v>4741021.429161131</v>
+        <v>4945134.621546653</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.124475278398996e-07</v>
+        <v>1.348032462989137e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.13333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4288544.998027182</v>
+        <v>4473177.913806086</v>
       </c>
     </row>
     <row r="3">
@@ -26705,28 +26705,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1679.605975943142</v>
+        <v>1779.001731413204</v>
       </c>
       <c r="AB3" t="n">
-        <v>2298.110995271421</v>
+        <v>2434.108652936812</v>
       </c>
       <c r="AC3" t="n">
-        <v>2078.782507301756</v>
+        <v>2201.800739393473</v>
       </c>
       <c r="AD3" t="n">
-        <v>1679605.975943142</v>
+        <v>1779001.731413204</v>
       </c>
       <c r="AE3" t="n">
-        <v>2298110.995271422</v>
+        <v>2434108.652936812</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.385135353392037e-06</v>
+        <v>2.046372383107624e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.14375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2078782.507301756</v>
+        <v>2201800.739393473</v>
       </c>
     </row>
     <row r="4">
@@ -26811,28 +26811,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1357.25274544258</v>
+        <v>1448.436556619442</v>
       </c>
       <c r="AB4" t="n">
-        <v>1857.053084079707</v>
+        <v>1981.814797277727</v>
       </c>
       <c r="AC4" t="n">
-        <v>1679.818544125513</v>
+        <v>1792.673174520078</v>
       </c>
       <c r="AD4" t="n">
-        <v>1357252.74544258</v>
+        <v>1448436.556619442</v>
       </c>
       <c r="AE4" t="n">
-        <v>1857053.084079707</v>
+        <v>1981814.797277727</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.555007540699836e-06</v>
+        <v>2.297338291900205e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.61458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1679818.544125512</v>
+        <v>1792673.174520078</v>
       </c>
     </row>
     <row r="5">
@@ -26917,28 +26917,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1209.027694966078</v>
+        <v>1291.829059157697</v>
       </c>
       <c r="AB5" t="n">
-        <v>1654.245030790045</v>
+        <v>1767.537510215396</v>
       </c>
       <c r="AC5" t="n">
-        <v>1496.366206798925</v>
+        <v>1598.846210994914</v>
       </c>
       <c r="AD5" t="n">
-        <v>1209027.694966078</v>
+        <v>1291829.059157697</v>
       </c>
       <c r="AE5" t="n">
-        <v>1654245.030790045</v>
+        <v>1767537.510215396</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.644867465869903e-06</v>
+        <v>2.430095620464396e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.48958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1496366.206798925</v>
+        <v>1598846.210994914</v>
       </c>
     </row>
     <row r="6">
@@ -27023,28 +27023,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1108.551580601379</v>
+        <v>1191.43819613902</v>
       </c>
       <c r="AB6" t="n">
-        <v>1516.769178422942</v>
+        <v>1630.178302500942</v>
       </c>
       <c r="AC6" t="n">
-        <v>1372.010856833168</v>
+        <v>1474.596373279869</v>
       </c>
       <c r="AD6" t="n">
-        <v>1108551.580601379</v>
+        <v>1191438.196139019</v>
       </c>
       <c r="AE6" t="n">
-        <v>1516769.178422942</v>
+        <v>1630178.302500942</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.699183482282633e-06</v>
+        <v>2.510341060504053e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.86458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1372010.856833168</v>
+        <v>1474596.373279869</v>
       </c>
     </row>
     <row r="7">
@@ -27129,28 +27129,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1047.864233869397</v>
+        <v>1130.750849407037</v>
       </c>
       <c r="AB7" t="n">
-        <v>1433.734073287464</v>
+        <v>1547.143197365463</v>
       </c>
       <c r="AC7" t="n">
-        <v>1296.900505591317</v>
+        <v>1399.486022038018</v>
       </c>
       <c r="AD7" t="n">
-        <v>1047864.233869397</v>
+        <v>1130750.849407037</v>
       </c>
       <c r="AE7" t="n">
-        <v>1433734.073287464</v>
+        <v>1547143.197365463</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.731803866077246e-06</v>
+        <v>2.558533789366397e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.51041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1296900.505591317</v>
+        <v>1399486.022038018</v>
       </c>
     </row>
     <row r="8">
@@ -27235,28 +27235,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1043.557600557305</v>
+        <v>1118.147109964275</v>
       </c>
       <c r="AB8" t="n">
-        <v>1427.841547594606</v>
+        <v>1529.898205022135</v>
       </c>
       <c r="AC8" t="n">
-        <v>1291.570354280375</v>
+        <v>1383.886867560438</v>
       </c>
       <c r="AD8" t="n">
-        <v>1043557.600557305</v>
+        <v>1118147.109964275</v>
       </c>
       <c r="AE8" t="n">
-        <v>1427841.547594606</v>
+        <v>1529898.205022135</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.735804479184133e-06</v>
+        <v>2.564444218377817e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.46875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1291570.354280375</v>
+        <v>1383886.867560438</v>
       </c>
     </row>
   </sheetData>
@@ -27532,28 +27532,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5578.954559422619</v>
+        <v>5774.95048304973</v>
       </c>
       <c r="AB2" t="n">
-        <v>7633.371754306919</v>
+        <v>7901.54202374344</v>
       </c>
       <c r="AC2" t="n">
-        <v>6904.853467580122</v>
+        <v>7147.429942880949</v>
       </c>
       <c r="AD2" t="n">
-        <v>5578954.55942262</v>
+        <v>5774950.48304973</v>
       </c>
       <c r="AE2" t="n">
-        <v>7633371.754306919</v>
+        <v>7901542.02374344</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.051900640273583e-07</v>
+        <v>1.02405516110983e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.80416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>6904853.467580122</v>
+        <v>7147429.942880949</v>
       </c>
     </row>
     <row r="3">
@@ -27638,28 +27638,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2167.334558009796</v>
+        <v>2278.040742738393</v>
       </c>
       <c r="AB3" t="n">
-        <v>2965.44275832146</v>
+        <v>3116.915844279479</v>
       </c>
       <c r="AC3" t="n">
-        <v>2682.425063492311</v>
+        <v>2819.441770720191</v>
       </c>
       <c r="AD3" t="n">
-        <v>2167334.558009796</v>
+        <v>2278040.742738393</v>
       </c>
       <c r="AE3" t="n">
-        <v>2965442.75832146</v>
+        <v>3116915.844279479</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.223110352851488e-06</v>
+        <v>1.776162957105758e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.25625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2682425.063492311</v>
+        <v>2819441.77072019</v>
       </c>
     </row>
     <row r="4">
@@ -27744,28 +27744,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1690.110300690906</v>
+        <v>1792.287413070242</v>
       </c>
       <c r="AB4" t="n">
-        <v>2312.483475809413</v>
+        <v>2452.28670870288</v>
       </c>
       <c r="AC4" t="n">
-        <v>2091.783298469105</v>
+        <v>2218.243907030288</v>
       </c>
       <c r="AD4" t="n">
-        <v>1690110.300690906</v>
+        <v>1792287.413070242</v>
       </c>
       <c r="AE4" t="n">
-        <v>2312483.475809413</v>
+        <v>2452286.70870288</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.413197329740276e-06</v>
+        <v>2.052201375218205e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.85833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2091783.298469105</v>
+        <v>2218243.907030289</v>
       </c>
     </row>
     <row r="5">
@@ -27850,28 +27850,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1495.970934846382</v>
+        <v>1581.175511907428</v>
       </c>
       <c r="AB5" t="n">
-        <v>2046.85343063659</v>
+        <v>2163.434091932159</v>
       </c>
       <c r="AC5" t="n">
-        <v>1851.504611993466</v>
+        <v>1956.958978596972</v>
       </c>
       <c r="AD5" t="n">
-        <v>1495970.934846382</v>
+        <v>1581175.511907428</v>
       </c>
       <c r="AE5" t="n">
-        <v>2046853.43063659</v>
+        <v>2163434.091932159</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.51357867400994e-06</v>
+        <v>2.19797205311378e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.40833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1851504.611993466</v>
+        <v>1956958.978596972</v>
       </c>
     </row>
     <row r="6">
@@ -27956,28 +27956,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1377.450345555717</v>
+        <v>1462.740173962784</v>
       </c>
       <c r="AB6" t="n">
-        <v>1884.688331609731</v>
+        <v>2001.385637557948</v>
       </c>
       <c r="AC6" t="n">
-        <v>1704.816322417584</v>
+        <v>1810.376201271802</v>
       </c>
       <c r="AD6" t="n">
-        <v>1377450.345555717</v>
+        <v>1462740.173962784</v>
       </c>
       <c r="AE6" t="n">
-        <v>1884688.331609731</v>
+        <v>2001385.637557948</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.576446753729788e-06</v>
+        <v>2.289267130555027e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.59375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1704816.322417584</v>
+        <v>1810376.201271802</v>
       </c>
     </row>
     <row r="7">
@@ -28062,28 +28062,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1301.511161409232</v>
+        <v>1378.272096484143</v>
       </c>
       <c r="AB7" t="n">
-        <v>1780.78498966015</v>
+        <v>1885.812687483094</v>
       </c>
       <c r="AC7" t="n">
-        <v>1610.829369594415</v>
+        <v>1705.833371344438</v>
       </c>
       <c r="AD7" t="n">
-        <v>1301511.161409232</v>
+        <v>1378272.096484143</v>
       </c>
       <c r="AE7" t="n">
-        <v>1780784.98966015</v>
+        <v>1885812.687483094</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.618556505240253e-06</v>
+        <v>2.350417606954352e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.08541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1610829.369594415</v>
+        <v>1705833.371344438</v>
       </c>
     </row>
     <row r="8">
@@ -28168,28 +28168,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1228.305268450273</v>
+        <v>1313.509756002767</v>
       </c>
       <c r="AB8" t="n">
-        <v>1680.621457297639</v>
+        <v>1797.20199612366</v>
       </c>
       <c r="AC8" t="n">
-        <v>1520.225304180182</v>
+        <v>1625.679560002461</v>
       </c>
       <c r="AD8" t="n">
-        <v>1228305.268450273</v>
+        <v>1313509.756002767</v>
       </c>
       <c r="AE8" t="n">
-        <v>1680621.457297639</v>
+        <v>1797201.99612366</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.651621556602343e-06</v>
+        <v>2.398433650042555e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.70208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1520225.304180182</v>
+        <v>1625679.560002461</v>
       </c>
     </row>
     <row r="9">
@@ -28274,28 +28274,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1176.018081276809</v>
+        <v>1252.693675497148</v>
       </c>
       <c r="AB9" t="n">
-        <v>1609.07982105901</v>
+        <v>1713.990751759757</v>
       </c>
       <c r="AC9" t="n">
-        <v>1455.51150129485</v>
+        <v>1550.409880012934</v>
       </c>
       <c r="AD9" t="n">
-        <v>1176018.081276809</v>
+        <v>1252693.675497148</v>
       </c>
       <c r="AE9" t="n">
-        <v>1609079.82105901</v>
+        <v>1713990.751759757</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.67356607499512e-06</v>
+        <v>2.430300799715443e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.45833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1455511.50129485</v>
+        <v>1550409.880012934</v>
       </c>
     </row>
     <row r="10">
@@ -28380,28 +28380,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1145.650843682419</v>
+        <v>1222.326437902758</v>
       </c>
       <c r="AB10" t="n">
-        <v>1567.530026874395</v>
+        <v>1672.440957575142</v>
       </c>
       <c r="AC10" t="n">
-        <v>1417.927161151712</v>
+        <v>1512.825539869796</v>
       </c>
       <c r="AD10" t="n">
-        <v>1145650.843682419</v>
+        <v>1222326.437902758</v>
       </c>
       <c r="AE10" t="n">
-        <v>1567530.026874395</v>
+        <v>1672440.957575141</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.686910714558296e-06</v>
+        <v>2.449679471813821e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.3125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1417927.161151712</v>
+        <v>1512825.539869796</v>
       </c>
     </row>
     <row r="11">
@@ -28486,28 +28486,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1146.303384275936</v>
+        <v>1222.978978496275</v>
       </c>
       <c r="AB11" t="n">
-        <v>1568.422861702504</v>
+        <v>1673.333792403251</v>
       </c>
       <c r="AC11" t="n">
-        <v>1418.734785076928</v>
+        <v>1513.633163795012</v>
       </c>
       <c r="AD11" t="n">
-        <v>1146303.384275936</v>
+        <v>1222978.978496275</v>
       </c>
       <c r="AE11" t="n">
-        <v>1568422.861702504</v>
+        <v>1673333.792403251</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.688393452287538e-06</v>
+        <v>2.451832657602529e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.29583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1418734.785076928</v>
+        <v>1513633.163795012</v>
       </c>
     </row>
   </sheetData>
@@ -28783,28 +28783,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>745.6102369640539</v>
+        <v>837.8579355222844</v>
       </c>
       <c r="AB2" t="n">
-        <v>1020.176820216332</v>
+        <v>1146.39419106494</v>
       </c>
       <c r="AC2" t="n">
-        <v>922.8125763220445</v>
+        <v>1036.983938444054</v>
       </c>
       <c r="AD2" t="n">
-        <v>745610.2369640539</v>
+        <v>837857.9355222844</v>
       </c>
       <c r="AE2" t="n">
-        <v>1020176.820216332</v>
+        <v>1146394.19106494</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.62382848422645e-06</v>
+        <v>2.706825337060357e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.44375</v>
       </c>
       <c r="AH2" t="n">
-        <v>922812.5763220445</v>
+        <v>1036983.938444054</v>
       </c>
     </row>
   </sheetData>
@@ -29080,28 +29080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1883.259056989484</v>
+        <v>1994.284038450314</v>
       </c>
       <c r="AB2" t="n">
-        <v>2576.758125298865</v>
+        <v>2728.667403010066</v>
       </c>
       <c r="AC2" t="n">
-        <v>2330.835946323084</v>
+        <v>2468.247215775538</v>
       </c>
       <c r="AD2" t="n">
-        <v>1883259.056989484</v>
+        <v>1994284.038450314</v>
       </c>
       <c r="AE2" t="n">
-        <v>2576758.125298865</v>
+        <v>2728667.403010066</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.243364255846977e-06</v>
+        <v>1.892284294185766e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.3625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2330835.946323084</v>
+        <v>2468247.215775538</v>
       </c>
     </row>
     <row r="3">
@@ -29186,28 +29186,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1128.156824262838</v>
+        <v>1215.439434142241</v>
       </c>
       <c r="AB3" t="n">
-        <v>1543.593937722857</v>
+        <v>1663.01785519684</v>
       </c>
       <c r="AC3" t="n">
-        <v>1396.275498754285</v>
+        <v>1504.301765157072</v>
       </c>
       <c r="AD3" t="n">
-        <v>1128156.824262838</v>
+        <v>1215439.434142241</v>
       </c>
       <c r="AE3" t="n">
-        <v>1543593.937722857</v>
+        <v>1663017.85519684</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.640345935117269e-06</v>
+        <v>2.49645334056948e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.73958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1396275.498754285</v>
+        <v>1504301.765157072</v>
       </c>
     </row>
     <row r="4">
@@ -29292,28 +29292,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>941.7369502300543</v>
+        <v>1020.991767787621</v>
       </c>
       <c r="AB4" t="n">
-        <v>1288.5260418068</v>
+        <v>1396.965979664844</v>
       </c>
       <c r="AC4" t="n">
-        <v>1165.550924834416</v>
+        <v>1263.641507219698</v>
       </c>
       <c r="AD4" t="n">
-        <v>941736.9502300543</v>
+        <v>1020991.767787621</v>
       </c>
       <c r="AE4" t="n">
-        <v>1288526.0418068</v>
+        <v>1396965.979664844</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.77702782139832e-06</v>
+        <v>2.704470408370043e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.14583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1165550.924834416</v>
+        <v>1263641.507219698</v>
       </c>
     </row>
     <row r="5">
@@ -29398,28 +29398,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>913.1239865244451</v>
+        <v>992.4640554280322</v>
       </c>
       <c r="AB5" t="n">
-        <v>1249.376522549916</v>
+        <v>1357.93310506061</v>
       </c>
       <c r="AC5" t="n">
-        <v>1130.137780748714</v>
+        <v>1228.333875384708</v>
       </c>
       <c r="AD5" t="n">
-        <v>913123.986524445</v>
+        <v>992464.0554280322</v>
       </c>
       <c r="AE5" t="n">
-        <v>1249376.522549917</v>
+        <v>1357933.10506061</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.794990793311003e-06</v>
+        <v>2.731808374269758e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.95416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1130137.780748714</v>
+        <v>1228333.875384708</v>
       </c>
     </row>
     <row r="6">
@@ -29504,28 +29504,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>919.2355811316552</v>
+        <v>998.5756500352425</v>
       </c>
       <c r="AB6" t="n">
-        <v>1257.738675916026</v>
+        <v>1366.29525842672</v>
       </c>
       <c r="AC6" t="n">
-        <v>1137.701861933919</v>
+        <v>1235.897956569912</v>
       </c>
       <c r="AD6" t="n">
-        <v>919235.5811316551</v>
+        <v>998575.6500352424</v>
       </c>
       <c r="AE6" t="n">
-        <v>1257738.675916026</v>
+        <v>1366295.25842672</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.794664193821681e-06</v>
+        <v>2.731311320344309e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.95625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1137701.861933919</v>
+        <v>1235897.956569912</v>
       </c>
     </row>
   </sheetData>
@@ -29801,28 +29801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2728.209909407153</v>
+        <v>2866.86498729954</v>
       </c>
       <c r="AB2" t="n">
-        <v>3732.857158177692</v>
+        <v>3922.571152780385</v>
       </c>
       <c r="AC2" t="n">
-        <v>3376.598510098998</v>
+        <v>3548.206467322068</v>
       </c>
       <c r="AD2" t="n">
-        <v>2728209.909407153</v>
+        <v>2866864.98729954</v>
       </c>
       <c r="AE2" t="n">
-        <v>3732857.158177692</v>
+        <v>3922571.152780385</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.033110044497118e-06</v>
+        <v>1.542341033530622e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.70625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3376598.510098998</v>
+        <v>3548206.467322067</v>
       </c>
     </row>
     <row r="3">
@@ -29907,28 +29907,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1456.392608422652</v>
+        <v>1546.135789759975</v>
       </c>
       <c r="AB3" t="n">
-        <v>1992.700618351113</v>
+        <v>2115.491198246573</v>
       </c>
       <c r="AC3" t="n">
-        <v>1802.520068108565</v>
+        <v>1913.591687396464</v>
       </c>
       <c r="AD3" t="n">
-        <v>1456392.608422652</v>
+        <v>1546135.789759975</v>
       </c>
       <c r="AE3" t="n">
-        <v>1992700.618351113</v>
+        <v>2115491.198246573</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.478050148884097e-06</v>
+        <v>2.206596873568921e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.16041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1802520.068108565</v>
+        <v>1913591.687396464</v>
       </c>
     </row>
     <row r="4">
@@ -30013,28 +30013,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1197.590082390175</v>
+        <v>1279.167042574467</v>
       </c>
       <c r="AB4" t="n">
-        <v>1638.59558467184</v>
+        <v>1750.212780517472</v>
       </c>
       <c r="AC4" t="n">
-        <v>1482.210321854106</v>
+        <v>1583.174929183949</v>
       </c>
       <c r="AD4" t="n">
-        <v>1197590.082390175</v>
+        <v>1279167.042574467</v>
       </c>
       <c r="AE4" t="n">
-        <v>1638595.584671841</v>
+        <v>1750212.780517472</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.636216136521306e-06</v>
+        <v>2.442724567942959e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.01875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1482210.321854106</v>
+        <v>1583174.929183949</v>
       </c>
     </row>
     <row r="5">
@@ -30119,28 +30119,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1063.710975991055</v>
+        <v>1137.207055876887</v>
       </c>
       <c r="AB5" t="n">
-        <v>1455.416284967238</v>
+        <v>1555.976863885239</v>
       </c>
       <c r="AC5" t="n">
-        <v>1316.51339741955</v>
+        <v>1407.476615823276</v>
       </c>
       <c r="AD5" t="n">
-        <v>1063710.975991055</v>
+        <v>1137207.055876887</v>
       </c>
       <c r="AE5" t="n">
-        <v>1455416.284967238</v>
+        <v>1555976.863885239</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.719229696633082e-06</v>
+        <v>2.566656399582613e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.05208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1316513.39741955</v>
+        <v>1407476.615823276</v>
       </c>
     </row>
     <row r="6">
@@ -30225,28 +30225,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>994.6467811427755</v>
+        <v>1076.223651818516</v>
       </c>
       <c r="AB6" t="n">
-        <v>1360.919606678584</v>
+        <v>1472.536680054667</v>
       </c>
       <c r="AC6" t="n">
-        <v>1231.035349479844</v>
+        <v>1331.99984602846</v>
       </c>
       <c r="AD6" t="n">
-        <v>994646.7811427754</v>
+        <v>1076223.651818516</v>
       </c>
       <c r="AE6" t="n">
-        <v>1360919.606678584</v>
+        <v>1472536.680054667</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.756491465092345e-06</v>
+        <v>2.622284892193595e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.64791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1231035.349479844</v>
+        <v>1331999.84602846</v>
       </c>
     </row>
     <row r="7">
@@ -30331,28 +30331,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>995.3471705328799</v>
+        <v>1076.92404120862</v>
       </c>
       <c r="AB7" t="n">
-        <v>1361.877910341124</v>
+        <v>1473.494983717207</v>
       </c>
       <c r="AC7" t="n">
-        <v>1231.902193985819</v>
+        <v>1332.866690534435</v>
       </c>
       <c r="AD7" t="n">
-        <v>995347.1705328799</v>
+        <v>1076924.04120862</v>
       </c>
       <c r="AE7" t="n">
-        <v>1361877.910341124</v>
+        <v>1473494.983717207</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.759950363430335e-06</v>
+        <v>2.627448718511913e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.6125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1231902.193985819</v>
+        <v>1332866.690534435</v>
       </c>
     </row>
   </sheetData>
